--- a/biology/Botanique/Polystachya_coriscensis/Polystachya_coriscensis.xlsx
+++ b/biology/Botanique/Polystachya_coriscensis/Polystachya_coriscensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polystachya coriscencis Rchb. f. est une espèce de plantes de la famille des Orchidées et du genre Polystachya, endémique d'Afrique centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique coriscensis fait référence à Corisco, une île de Guinée équatoriale où elle a été observée.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polystachia coriscensis est une plante de 20 cm de haut. Elle possède des pseudobulbes couvertss de quelques gaines et de feuilles oblongues ou elliptiques. Les inflorescences de 4 à 12 cm sont ramifiées et couvertes de 10 à 25 fleurs. Les fleurs sont petites d'une couleur vert-blanc avec des striures marron ou roses[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystachia coriscensis est une plante de 20 cm de haut. Elle possède des pseudobulbes couvertss de quelques gaines et de feuilles oblongues ou elliptiques. Les inflorescences de 4 à 12 cm sont ramifiées et couvertes de 10 à 25 fleurs. Les fleurs sont petites d'une couleur vert-blanc avec des striures marron ou roses.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Polystachia coriscensis est une plante épiphyte qui pousse sur la mousse des arbres des forêts à feuilles persistantes de la cote sud de la Côte d'Ivoire à la côte ouest du Nigéria[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polystachia coriscensis est une plante épiphyte qui pousse sur la mousse des arbres des forêts à feuilles persistantes de la cote sud de la Côte d'Ivoire à la côte ouest du Nigéria.
 </t>
         </is>
       </c>
